--- a/Documents/数据库设计.xlsx
+++ b/Documents/数据库设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA3E07B7-A715-4B42-BF67-8D0026242E24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C991E94-4F36-45E4-A791-E721D2F7ED45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="117">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,22 @@
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,9 +657,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -688,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,2297 +986,2317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T117"/>
+  <dimension ref="B1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>20</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
         <v>11</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>200</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12">
-        <v>4</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="9">
-        <v>8</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="G16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>300</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
       <c r="T17">
         <f>+U17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>300</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="G18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>6</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="G20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="8">
         <v>12</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="G26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="F29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
         <v>2</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="10" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
         <v>3</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="8">
         <v>300</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>4</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="9">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="9">
-        <v>4</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
         <v>2</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="8">
         <v>20</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="G38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
         <v>3</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8">
         <v>11</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="G39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="10" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
         <v>3</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="F48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
         <v>1</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="9">
-        <v>8</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="E49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>8</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
         <v>2</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="8">
         <v>20</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="G50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
         <v>3</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="9">
-        <v>4</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="F51" s="8">
+        <v>4</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="8">
         <v>2</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="G52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
         <v>5</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="F56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
         <v>2</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="10" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="7">
         <v>3</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="9">
-        <v>8</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="E59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="8">
+        <v>8</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="F62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
         <v>1</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="9">
-        <v>8</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="E63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="8">
+        <v>8</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="7">
         <v>2</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="8">
         <v>20</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+      <c r="G64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="7">
         <v>3</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="8">
         <v>20</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
-        <v>4</v>
-      </c>
-      <c r="C65" s="9" t="s">
+      <c r="G65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="7">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="8">
         <v>11</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+      <c r="G66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="7">
         <v>5</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="8">
         <v>300</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+      <c r="G67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="9" t="s">
+      <c r="F70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H70" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="7">
         <v>1</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="7">
         <v>2</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="10" t="s">
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
         <v>3</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="9">
-        <v>8</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
-        <v>4</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="F73" s="8">
+        <v>8</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="7">
+        <v>4</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="9">
-        <v>8</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+      <c r="E74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="8">
+        <v>8</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="F77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H77" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
         <v>1</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="9">
-        <v>8</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="8">
+        <v>8</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="7">
         <v>1</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="9" t="s">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="7">
         <v>2</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="9">
-        <v>4</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+      <c r="E80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="8">
+        <v>4</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="7">
         <v>3</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
-        <v>4</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="7">
+        <v>4</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="16"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="9" t="s">
+      <c r="F85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="7">
         <v>1</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="9">
-        <v>8</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="9" t="s">
+      <c r="E86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="8">
+        <v>8</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="7">
         <v>2</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="9" t="s">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="7">
         <v>3</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="9">
-        <v>8</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="10"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
-        <v>4</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="E88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="8">
+        <v>8</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="7">
+        <v>4</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="7">
         <v>5</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="8">
         <v>200</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="G90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="9" t="s">
+      <c r="F93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="8">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="7">
         <v>1</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="9">
-        <v>8</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="9" t="s">
+      <c r="E94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="8">
+        <v>8</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I93" s="10"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="7">
         <v>2</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="9">
-        <v>4</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
+      <c r="F95" s="8">
+        <v>4</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="7">
         <v>3</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="9" t="s">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I96" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="8">
-        <v>4</v>
-      </c>
-      <c r="C96" s="9" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="7">
+        <v>4</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="9">
-        <v>8</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
+      <c r="E97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="8">
+        <v>8</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="7">
         <v>5</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="10"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D101" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="9" t="s">
+      <c r="F101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I101" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="7">
         <v>1</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D102" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="9">
-        <v>8</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="9" t="s">
+      <c r="E102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="8">
+        <v>8</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="10"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="7">
         <v>2</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F103" s="8">
         <v>20</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="10"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
+      <c r="G103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="7">
         <v>3</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="9">
+      <c r="E104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="8">
         <v>11</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="10"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
-        <v>4</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="G104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="9">
-        <v>4</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="10"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8">
+      <c r="E105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="8">
+        <v>4</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="7">
         <v>5</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D106" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="9">
-        <v>8</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="10"/>
-    </row>
-    <row r="106" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="14" t="s">
+      <c r="F106" s="8">
+        <v>8</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" s="9" t="s">
+      <c r="F109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H109" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I109" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="8">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="7">
         <v>1</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="9">
-        <v>4</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="9" t="s">
+      <c r="E110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="8">
+        <v>4</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="8">
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="7">
         <v>2</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="9">
-        <v>8</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="10"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="8">
+      <c r="F111" s="8">
+        <v>8</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="7">
         <v>3</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="9">
-        <v>8</v>
-      </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
+      <c r="F112" s="8">
+        <v>8</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" s="9" t="s">
+      <c r="F115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H115" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I115" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="8">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="7">
         <v>1</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="1" t="s">
+      <c r="E116" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I116" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="8">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="7">
         <v>2</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="1"/>
-      <c r="I116" s="10" t="s">
+      <c r="E117" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="16"/>
+      <c r="I117" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="11">
+    <row r="118" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10">
         <v>3</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C118" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F118" s="11">
         <v>20</v>
       </c>
-      <c r="G117" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="13"/>
+      <c r="G118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H116:H117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
